--- a/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
+++ b/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
   <si>
     <t>土地坐落</t>
   </si>
@@ -171,6 +171,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>旭能光電股份有限公司</t>
   </si>
   <si>
@@ -208,6 +217,9 @@
   </si>
   <si>
     <t>新賽幣</t>
+  </si>
+  <si>
+    <t>2011-12-31</t>
   </si>
   <si>
     <t>名</t>
@@ -1016,13 +1028,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1041,13 +1053,22 @@
       <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1064,16 +1085,25 @@
       <c r="G2" s="2">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2">
         <v>885</v>
@@ -1082,21 +1112,30 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2">
         <v>8850</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2">
         <v>1956</v>
@@ -1110,13 +1149,22 @@
       <c r="G4" s="2">
         <v>19560</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1133,13 +1181,22 @@
       <c r="G5" s="2">
         <v>65260</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1156,13 +1213,22 @@
       <c r="G6" s="2">
         <v>33130</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1179,13 +1245,22 @@
       <c r="G7" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
@@ -1202,13 +1277,22 @@
       <c r="G8" s="2">
         <v>5224030</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>42</v>
@@ -1225,13 +1309,22 @@
       <c r="G9" s="2">
         <v>32640</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -1248,13 +1341,22 @@
       <c r="G10" s="2">
         <v>40000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>43</v>
@@ -1271,13 +1373,22 @@
       <c r="G11" s="2">
         <v>5224030</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>43</v>
@@ -1293,6 +1404,15 @@
       </c>
       <c r="G12" s="2">
         <v>32640</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2">
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -1310,22 +1430,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1333,14 +1453,14 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1350,22 +1470,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1383,16 +1503,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1400,13 +1520,13 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1415,10 +1535,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -1432,10 +1552,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>

--- a/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
+++ b/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
   <si>
     <t>土地坐落</t>
   </si>
@@ -171,6 +171,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -183,13 +186,13 @@
     <t>旭能光電股份有限公司</t>
   </si>
   <si>
-    <t>國泰金融控股股份有限公 司</t>
+    <t>國泰金融控股股份有限公司</t>
   </si>
   <si>
     <t>長億實業股份有限公司</t>
   </si>
   <si>
-    <t>台新金融控股股份有限公 司</t>
+    <t>台新金融控股股份有限公司</t>
   </si>
   <si>
     <t>統一企業股份有限公司</t>
@@ -198,16 +201,16 @@
     <t>華隆畴份有限公司</t>
   </si>
   <si>
-    <t>台_積體電路製造股份有 限公司</t>
-  </si>
-  <si>
-    <t>兆豐票f金融股份有限妗 司 .</t>
+    <t>台_積體電路製造股份有限公司</t>
+  </si>
+  <si>
+    <t>兆豐票f金融股份有限妗司.</t>
   </si>
   <si>
     <t>旭熊光電股份有限公司</t>
   </si>
   <si>
-    <t>台灣積體電路製造股份有 限公司</t>
+    <t>台灣積體電路製造股份有限公司</t>
   </si>
   <si>
     <t>«静秋</t>
@@ -217,6 +220,9 @@
   </si>
   <si>
     <t>新賽幣</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-12-31</t>
@@ -1028,13 +1034,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1062,13 +1068,16 @@
       <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1086,24 +1095,27 @@
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2">
         <v>885</v>
@@ -1112,30 +1124,33 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2">
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2">
         <v>1956</v>
@@ -1150,21 +1165,24 @@
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1182,21 +1200,24 @@
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1214,21 +1235,24 @@
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1246,21 +1270,24 @@
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
@@ -1278,21 +1305,24 @@
         <v>5224030</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>42</v>
@@ -1310,21 +1340,24 @@
         <v>32640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -1342,21 +1375,24 @@
         <v>40000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>43</v>
@@ -1374,21 +1410,24 @@
         <v>5224030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>43</v>
@@ -1406,12 +1445,15 @@
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>879</v>
       </c>
     </row>
@@ -1430,22 +1472,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1453,14 +1495,14 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1470,22 +1512,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1503,16 +1545,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1520,13 +1562,13 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1535,10 +1577,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -1552,10 +1594,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>

--- a/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
+++ b/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="98">
   <si>
     <t>土地坐落</t>
   </si>
@@ -174,6 +174,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -183,6 +186,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>旭能光電股份有限公司</t>
   </si>
   <si>
@@ -201,7 +210,7 @@
     <t>華隆畴份有限公司</t>
   </si>
   <si>
-    <t>台_積體電路製造股份有限公司</t>
+    <t>台積體電路製造股份有限公司</t>
   </si>
   <si>
     <t>兆豐票f金融股份有限妗司.</t>
@@ -225,7 +234,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-12-31</t>
+  </si>
+  <si>
+    <t>tmp94331</t>
   </si>
   <si>
     <t>名</t>
@@ -1034,13 +1049,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1071,13 +1086,22 @@
       <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1095,27 +1119,36 @@
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2">
         <v>885</v>
@@ -1124,33 +1157,42 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2">
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2">
         <v>1956</v>
@@ -1165,24 +1207,33 @@
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2">
+        <v>879</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="2">
         <v>67</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="2">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1200,24 +1251,33 @@
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2">
+        <v>879</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="2">
         <v>68</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="2">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1235,24 +1295,33 @@
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1270,24 +1339,33 @@
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
@@ -1305,24 +1383,33 @@
         <v>5224030</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>42</v>
@@ -1340,24 +1427,33 @@
         <v>32640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -1375,24 +1471,33 @@
         <v>40000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>43</v>
@@ -1401,7 +1506,7 @@
         <v>522403</v>
       </c>
       <c r="E11" s="2">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>39</v>
@@ -1410,24 +1515,33 @@
         <v>5224030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>43</v>
@@ -1445,16 +1559,25 @@
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>879</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1472,22 +1595,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1495,14 +1618,14 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1512,22 +1635,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1545,16 +1668,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1562,13 +1685,13 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1577,10 +1700,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -1594,10 +1717,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>

--- a/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
+++ b/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
@@ -19,12 +19,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="98">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積'(平方公尺）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="97">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市三峽區十三添段十三添小段00050027地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段四小段08840000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段四小段08890000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段四小段08890001地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之44</t>
+  </si>
+  <si>
+    <t>黃靜秋</t>
+  </si>
+  <si>
+    <t>93年04月08日</t>
+  </si>
+  <si>
+    <t>75年12月04日</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-31</t>
+  </si>
+  <si>
+    <t>羅明才</t>
+  </si>
+  <si>
+    <t>tmp94331</t>
+  </si>
+  <si>
+    <t>建物標示</t>
+  </si>
+  <si>
+    <t>面積（平方公尺）</t>
   </si>
   <si>
     <t>權利範圍(持分）</t>
@@ -39,67 +135,13 @@
     <t>登記（取得）原因</t>
   </si>
   <si>
-    <t>取得■•價額"</t>
-  </si>
-  <si>
-    <t>新北市三峽區十三添段十三添 小段0005-0027地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段四小段 0884-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段四小段 0889-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段四小段 0889-0001 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 44</t>
-  </si>
-  <si>
-    <t>黃靜秋</t>
-  </si>
-  <si>
-    <t>黃靜秋•</t>
-  </si>
-  <si>
-    <t>93年04月 08日</t>
-  </si>
-  <si>
-    <t>75年12月 04日</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範_圍(持分）</t>
-  </si>
-  <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市中山區吉林段四小段 00638-000 建號</t>
-  </si>
-  <si>
-    <t>新北市三峽區十三添段十三添 小段00091-000建號</t>
+    <t>臺北市中山區吉林段四小段00638000建號</t>
+  </si>
+  <si>
+    <t>新北市三峽區十三添段十三添小段00091000建號</t>
   </si>
   <si>
     <t>2分之1</t>
@@ -123,7 +165,7 @@
     <t>玉山商業銀行北新分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行板橋分 行</t>
+    <t>中國信託商業銀行板橋分行</t>
   </si>
   <si>
     <t>華南商業銀行華江分行</t>
@@ -141,24 +183,12 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>,新臺幣</t>
-  </si>
-  <si>
-    <t>羅明才</t>
-  </si>
-  <si>
     <t>羅〇偉</t>
   </si>
   <si>
     <t>羅〇立</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -171,27 +201,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>旭能光電股份有限公司</t>
   </si>
   <si>
@@ -234,15 +243,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-12-31</t>
-  </si>
-  <si>
-    <t>tmp94331</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -261,22 +261,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字晝及事</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產.(總名</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字晝及事</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產.(總名</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t>教育终身壽險</t>
-  </si>
-  <si>
-    <t>•黃靜秋</t>
   </si>
 </sst>
 </file>
@@ -671,13 +668,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,109 +696,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>214</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>879</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>404</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>879</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>879</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>879</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
         <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -819,25 +921,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -845,25 +947,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>-36.35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -871,25 +973,25 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>194.61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -907,19 +1009,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -927,16 +1029,16 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>452811</v>
@@ -947,16 +1049,16 @@
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>66330</v>
@@ -967,16 +1069,16 @@
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>1030471</v>
@@ -987,16 +1089,16 @@
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>53757</v>
@@ -1007,16 +1109,16 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2">
         <v>10245</v>
@@ -1027,16 +1129,16 @@
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2">
         <v>13677</v>
@@ -1057,43 +1159,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1101,10 +1203,10 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>1000000</v>
@@ -1113,28 +1215,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2">
         <v>879</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2">
         <v>65</v>
@@ -1145,10 +1247,10 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2">
         <v>885</v>
@@ -1157,28 +1259,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2">
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2">
         <v>879</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2">
         <v>66</v>
@@ -1189,10 +1291,10 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2">
         <v>1956</v>
@@ -1201,28 +1303,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2">
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2">
         <v>879</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2">
         <v>67</v>
@@ -1233,10 +1335,10 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>6526</v>
@@ -1245,28 +1347,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2">
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>879</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2">
         <v>68</v>
@@ -1277,10 +1379,10 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>3313</v>
@@ -1289,28 +1391,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2">
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2">
         <v>879</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2">
         <v>69</v>
@@ -1321,10 +1423,10 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -1333,28 +1435,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2">
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2">
         <v>879</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2">
         <v>70</v>
@@ -1365,10 +1467,10 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2">
         <v>522403</v>
@@ -1377,28 +1479,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2">
         <v>5224030</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L8" s="2">
         <v>879</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2">
         <v>71</v>
@@ -1409,10 +1511,10 @@
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2">
         <v>3264</v>
@@ -1421,28 +1523,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2">
         <v>32640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2">
         <v>879</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N9" s="2">
         <v>72</v>
@@ -1453,10 +1555,10 @@
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2">
         <v>4000</v>
@@ -1465,28 +1567,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2">
         <v>40000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2">
         <v>879</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2">
         <v>73</v>
@@ -1497,10 +1599,10 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2">
         <v>522403</v>
@@ -1509,28 +1611,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2">
         <v>5224030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L11" s="2">
         <v>879</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N11" s="2">
         <v>74</v>
@@ -1541,10 +1643,10 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2">
         <v>3264</v>
@@ -1553,28 +1655,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2">
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L12" s="2">
         <v>879</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N12" s="2">
         <v>75</v>
@@ -1644,7 +1746,7 @@
         <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>86</v>
@@ -1691,7 +1793,7 @@
         <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1706,10 +1808,10 @@
         <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1723,10 +1825,10 @@
         <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
+++ b/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市三峽區十三添段十三添小段00050027地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市中山區吉林段四小段08840000地號</t>
@@ -75,235 +78,169 @@
     <t>臺北市中山區吉林段四小段08890001地號</t>
   </si>
   <si>
+    <t>10000分之44</t>
+  </si>
+  <si>
+    <t>黃靜秋</t>
+  </si>
+  <si>
+    <t>75年12月04日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-31</t>
+  </si>
+  <si>
+    <t>羅明才</t>
+  </si>
+  <si>
+    <t>tmp94331</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段四小段00638000建號</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>新北市三峽區十三添段十三添小段00091000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之44</t>
-  </si>
-  <si>
-    <t>黃靜秋</t>
-  </si>
-  <si>
     <t>93年04月08日</t>
   </si>
   <si>
-    <t>75年12月04日</t>
-  </si>
-  <si>
     <t>受贈</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-12-31</t>
-  </si>
-  <si>
-    <t>羅明才</t>
-  </si>
-  <si>
-    <t>tmp94331</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段四小段00638000建號</t>
-  </si>
-  <si>
-    <t>新北市三峽區十三添段十三添小段00091000建號</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
+    <t>玉山商業銀行北新分行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行華江分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行文山分行</t>
+  </si>
+  <si>
+    <t>華南商業纟1行文山另:行</t>
+  </si>
+  <si>
+    <t>羅〇偉</t>
+  </si>
+  <si>
+    <t>羅〇立</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>國泰金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>長億實業股份有限公司</t>
+  </si>
+  <si>
+    <t>台新金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>統一企業股份有限公司</t>
+  </si>
+  <si>
+    <t>華隆畴份有限公司</t>
+  </si>
+  <si>
+    <t>旭能光電股份有限公司</t>
+  </si>
+  <si>
+    <t>台積體電路製造股份有限公司</t>
+  </si>
+  <si>
+    <t>兆豐票f金融股份有限妗司.</t>
+  </si>
+  <si>
+    <t>旭熊光電股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣積體電路製造股份有限公司</t>
+  </si>
+  <si>
+    <t>«静秋</t>
+  </si>
+  <si>
+    <t>黃释秋</t>
+  </si>
+  <si>
+    <t>新賽幣</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字晝及事</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產.(總名</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>玉山商業銀行北新分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行華江分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行文山分行</t>
-  </si>
-  <si>
-    <t>華南商業纟1行文山另:行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>羅〇偉</t>
-  </si>
-  <si>
-    <t>羅〇立</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>旭能光電股份有限公司</t>
-  </si>
-  <si>
-    <t>國泰金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>長億實業股份有限公司</t>
-  </si>
-  <si>
-    <t>台新金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>統一企業股份有限公司</t>
-  </si>
-  <si>
-    <t>華隆畴份有限公司</t>
-  </si>
-  <si>
-    <t>台積體電路製造股份有限公司</t>
-  </si>
-  <si>
-    <t>兆豐票f金融股份有限妗司.</t>
-  </si>
-  <si>
-    <t>旭熊光電股份有限公司</t>
-  </si>
-  <si>
-    <t>台灣積體電路製造股份有限公司</t>
-  </si>
-  <si>
-    <t>«静秋</t>
-  </si>
-  <si>
-    <t>黃释秋</t>
-  </si>
-  <si>
-    <t>新賽幣</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字晝及事</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產.(總名</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>鍾愛一生313</t>
+  </si>
+  <si>
     <t>保德信國際人壽</t>
-  </si>
-  <si>
-    <t>鍾愛一生313</t>
   </si>
   <si>
     <t>教肓终身壽險</t>
@@ -668,13 +605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,19 +654,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -738,42 +681,48 @@
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>879</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0044</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.7776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>404</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -782,45 +731,51 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M3" s="2">
         <v>879</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0044</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -829,81 +784,40 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>879</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="2">
-        <v>879</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="2">
-        <v>18</v>
+      <c r="P4" s="2">
+        <v>0.0044</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.0176</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +827,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -921,77 +835,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C1" s="1">
+        <v>-36.35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
-        <v>-36.35</v>
+        <v>194.61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>194.61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +889,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1009,138 +897,118 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="F1" s="1">
+        <v>452811</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>452811</v>
+        <v>66330</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <v>66330</v>
+        <v>1030471</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>1030471</v>
+        <v>53757</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2">
-        <v>53757</v>
+        <v>10245</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2">
-        <v>10245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>58</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="2">
         <v>13677</v>
       </c>
     </row>
@@ -1151,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1165,16 +1033,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1200,485 +1068,441 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2">
-        <v>1000000</v>
+        <v>885</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
-        <v>10000000</v>
+        <v>8850</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L2" s="2">
         <v>879</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2">
-        <v>885</v>
+        <v>1956</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
-        <v>8850</v>
+        <v>19560</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L3" s="2">
         <v>879</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>1956</v>
+        <v>6526</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
-        <v>19560</v>
+        <v>65260</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L4" s="2">
         <v>879</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>6526</v>
+        <v>3313</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
-        <v>65260</v>
+        <v>33130</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>879</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N5" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>3313</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
-        <v>33130</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L6" s="2">
         <v>879</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N6" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>522403</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
-        <v>40</v>
+        <v>5224030</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L7" s="2">
         <v>879</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N7" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2">
-        <v>522403</v>
+        <v>3264</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2">
-        <v>5224030</v>
+        <v>32640</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L8" s="2">
         <v>879</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N8" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2">
-        <v>3264</v>
+        <v>4000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
-        <v>32640</v>
+        <v>40000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L9" s="2">
         <v>879</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N9" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2">
-        <v>4000</v>
+        <v>522403</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2">
-        <v>40000</v>
+        <v>5224030</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L10" s="2">
         <v>879</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N10" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2">
-        <v>522403</v>
+        <v>3264</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2">
-        <v>5224030</v>
+        <v>32640</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L11" s="2">
         <v>879</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N11" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1">
-        <v>75</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3264</v>
-      </c>
-      <c r="E12" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="2">
-        <v>32640</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="2">
-        <v>879</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="2">
         <v>75</v>
       </c>
     </row>
@@ -1689,7 +1513,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1697,62 +1521,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>95</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1770,65 +1571,48 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>103</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
+++ b/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市三峽區十三添段十三添小段00050027地號</t>
+  </si>
+  <si>
     <t>臺北市中山區吉林段四小段08840000地號</t>
   </si>
   <si>
@@ -78,15 +81,24 @@
     <t>臺北市中山區吉林段四小段08890001地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>10000分之44</t>
   </si>
   <si>
     <t>黃靜秋</t>
   </si>
   <si>
+    <t>93年04月08日</t>
+  </si>
+  <si>
     <t>75年12月04日</t>
   </si>
   <si>
+    <t>受贈</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -114,21 +126,12 @@
     <t>臺北市中山區吉林段四小段00638000建號</t>
   </si>
   <si>
+    <t>新北市三峽區十三添段十三添小段00091000建號</t>
+  </si>
+  <si>
     <t>2分之1</t>
   </si>
   <si>
-    <t>新北市三峽區十三添段十三添小段00091000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>93年04月08日</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
     <t>玉山商業銀行北新分行</t>
   </si>
   <si>
@@ -165,6 +168,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>旭能光電股份有限公司</t>
+  </si>
+  <si>
     <t>國泰金融控股股份有限公司</t>
   </si>
   <si>
@@ -178,9 +184,6 @@
   </si>
   <si>
     <t>華隆畴份有限公司</t>
-  </si>
-  <si>
-    <t>旭能光電股份有限公司</t>
   </si>
   <si>
     <t>台積體電路製造股份有限公司</t>
@@ -605,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,160 +666,213 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>404</v>
+        <v>214</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2">
         <v>879</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0044</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.7776</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>150</v>
+        <v>404</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2">
         <v>879</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2">
         <v>0.0044</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.66</v>
+        <v>1.7776</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2">
         <v>879</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4" s="2">
         <v>0.0044</v>
       </c>
       <c r="Q4" s="2">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>879</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0044</v>
+      </c>
+      <c r="Q5" s="2">
         <v>0.0176</v>
       </c>
     </row>
@@ -827,59 +883,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-36.35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1">
-        <v>-36.35</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>879</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-18.175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>194.61</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>879</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>194.61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -897,16 +1060,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1">
         <v>452811</v>
@@ -914,101 +1077,121 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2">
-        <v>66330</v>
+        <v>452811</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
-        <v>1030471</v>
+        <v>66330</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
-        <v>53757</v>
+        <v>1030471</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
-        <v>10245</v>
+        <v>53757</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="2">
+        <v>10245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2">
         <v>13677</v>
       </c>
     </row>
@@ -1019,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1033,13 +1216,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1068,315 +1251,315 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
-        <v>885</v>
+        <v>1000000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
-        <v>8850</v>
+        <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2">
         <v>879</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="2">
-        <v>1956</v>
+        <v>885</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2">
-        <v>19560</v>
+        <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2">
         <v>879</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N3" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2">
-        <v>6526</v>
+        <v>1956</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2">
-        <v>65260</v>
+        <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2">
         <v>879</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N4" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>3313</v>
+        <v>6526</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2">
-        <v>33130</v>
+        <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L5" s="2">
         <v>879</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N5" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>3313</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
-        <v>40</v>
+        <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L6" s="2">
         <v>879</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N6" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>522403</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
-        <v>5224030</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L7" s="2">
         <v>879</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N7" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>3264</v>
+        <v>522403</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2">
-        <v>32640</v>
+        <v>5224030</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L8" s="2">
         <v>879</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N8" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>55</v>
@@ -1385,124 +1568,168 @@
         <v>44</v>
       </c>
       <c r="D9" s="2">
-        <v>4000</v>
+        <v>3264</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2">
-        <v>40000</v>
+        <v>32640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L9" s="2">
         <v>879</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N9" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2">
-        <v>522403</v>
+        <v>4000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2">
-        <v>5224030</v>
+        <v>40000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L10" s="2">
         <v>879</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N10" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>3264</v>
+        <v>522403</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2">
-        <v>32640</v>
+        <v>5224030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L11" s="2">
         <v>879</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N11" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>75</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3264</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2">
+        <v>32640</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="2">
+        <v>879</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="2">
         <v>75</v>
       </c>
     </row>
@@ -1513,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1521,39 +1748,56 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>95</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1571,48 +1815,63 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
+++ b/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>2分之1</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>玉山商業銀行北新分行</t>
@@ -965,7 +968,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -1018,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>30</v>
@@ -1060,13 +1063,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1080,13 +1083,13 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1100,13 +1103,13 @@
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1120,13 +1123,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1140,13 +1143,13 @@
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1160,16 +1163,16 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2">
         <v>10245</v>
@@ -1180,16 +1183,16 @@
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2">
         <v>13677</v>
@@ -1216,13 +1219,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1254,7 +1257,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1266,13 +1269,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>30</v>
@@ -1298,10 +1301,10 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2">
         <v>885</v>
@@ -1310,13 +1313,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2">
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
@@ -1342,10 +1345,10 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2">
         <v>1956</v>
@@ -1354,13 +1357,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>30</v>
@@ -1386,7 +1389,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1398,13 +1401,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2">
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
@@ -1430,7 +1433,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1442,13 +1445,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
@@ -1474,7 +1477,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1486,13 +1489,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
@@ -1518,10 +1521,10 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2">
         <v>522403</v>
@@ -1530,13 +1533,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>5224030</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>30</v>
@@ -1562,10 +1565,10 @@
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
         <v>3264</v>
@@ -1574,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
         <v>32640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>30</v>
@@ -1606,10 +1609,10 @@
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
         <v>4000</v>
@@ -1618,13 +1621,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
         <v>40000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
@@ -1650,10 +1653,10 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
         <v>522403</v>
@@ -1662,13 +1665,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
         <v>5224030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>30</v>
@@ -1694,10 +1697,10 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2">
         <v>3264</v>
@@ -1706,13 +1709,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2">
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -1748,14 +1751,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1765,16 +1768,16 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1782,22 +1785,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1815,10 +1818,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -1830,10 +1833,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -1845,16 +1848,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1862,16 +1865,16 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
+++ b/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -135,40 +135,49 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>玉山商業銀行北新分行</t>
   </si>
   <si>
+    <t>中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行華江分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行文山分行</t>
+  </si>
+  <si>
+    <t>華南商業纟1行文山另:行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中國信託商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行華江分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行文山分行</t>
-  </si>
-  <si>
-    <t>華南商業纟1行文山另:行</t>
-  </si>
-  <si>
     <t>羅〇偉</t>
   </si>
   <si>
     <t>羅〇立</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>旭能光電股份有限公司</t>
@@ -1055,13 +1064,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1072,24 +1081,45 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1">
-        <v>452811</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1097,19 +1127,40 @@
       <c r="F2" s="2">
         <v>452811</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>879</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1117,19 +1168,40 @@
       <c r="F3" s="2">
         <v>66330</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>879</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1137,19 +1209,40 @@
       <c r="F4" s="2">
         <v>1030471</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>879</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1157,45 +1250,108 @@
       <c r="F5" s="2">
         <v>53757</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>879</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2">
         <v>10245</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2">
+        <v>879</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2">
         <v>13677</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2">
+        <v>879</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1219,13 +1375,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1257,7 +1413,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1269,13 +1425,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>30</v>
@@ -1301,10 +1457,10 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2">
         <v>885</v>
@@ -1313,13 +1469,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2">
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
@@ -1345,10 +1501,10 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2">
         <v>1956</v>
@@ -1357,13 +1513,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2">
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>30</v>
@@ -1389,7 +1545,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1401,13 +1557,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2">
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
@@ -1433,7 +1589,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1445,13 +1601,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2">
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
@@ -1477,7 +1633,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1489,13 +1645,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2">
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
@@ -1521,10 +1677,10 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2">
         <v>522403</v>
@@ -1533,13 +1689,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2">
         <v>5224030</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>30</v>
@@ -1565,10 +1721,10 @@
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2">
         <v>3264</v>
@@ -1577,13 +1733,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2">
         <v>32640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>30</v>
@@ -1609,10 +1765,10 @@
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2">
         <v>4000</v>
@@ -1621,13 +1777,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2">
         <v>40000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
@@ -1653,10 +1809,10 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2">
         <v>522403</v>
@@ -1665,13 +1821,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2">
         <v>5224030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>30</v>
@@ -1697,10 +1853,10 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2">
         <v>3264</v>
@@ -1709,13 +1865,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2">
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -1751,14 +1907,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1768,16 +1924,16 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1785,22 +1941,22 @@
         <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1818,10 +1974,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -1833,10 +1989,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -1848,16 +2004,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1865,16 +2021,16 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
+++ b/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
@@ -11,15 +11,14 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -220,33 +219,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字晝及事</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產.(總名</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -1899,73 +1871,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>94</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>95</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1974,10 +1879,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -1989,10 +1894,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -2004,10 +1909,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -2021,10 +1926,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
+++ b/legislator/property/output/normal/羅明才_2011-12-31_財產申報表_tmp94331.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -221,19 +221,25 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>保德信國際人壽</t>
+  </si>
+  <si>
     <t>鍾愛一生313</t>
   </si>
   <si>
-    <t>保德信國際人壽</t>
-  </si>
-  <si>
     <t>教肓终身壽險</t>
   </si>
   <si>
     <t>教育终身壽險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1871,40 +1877,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2">
+        <v>879</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -1912,16 +1958,34 @@
         <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2">
+        <v>879</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -1929,13 +1993,31 @@
         <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2">
+        <v>879</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
